--- a/PricerAndQutation/OptionPricer_v2_20180314.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180314.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="226">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,10 +802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sm805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7000|8000</t>
   </si>
   <si>
@@ -818,6 +814,20 @@
   </si>
   <si>
     <t>3450|3700</t>
+  </si>
+  <si>
+    <t>al1806</t>
+  </si>
+  <si>
+    <t>al1806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1805</t>
+  </si>
+  <si>
+    <t>al1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1664,16 +1674,33 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="wdf.rtq">
-      <tp>
-        <v>7524</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>sm805</stp>
         <stp>LastPrice</stp>
         <tr r="P18" s="1"/>
-        <tr r="P35" s="9"/>
       </tp>
       <tp>
-        <v>3629</v>
+        <v>13890</v>
+        <stp/>
+        <stp>al1805</stp>
+        <stp>LastPrice</stp>
+        <tr r="P22" s="1"/>
+        <tr r="P23" s="1"/>
+        <tr r="P24" s="1"/>
+      </tp>
+      <tp>
+        <v>13975</v>
+        <stp/>
+        <stp>al1806</stp>
+        <stp>LastPrice</stp>
+        <tr r="P25" s="1"/>
+        <tr r="P26" s="1"/>
+        <tr r="P27" s="1"/>
+      </tp>
+      <tp>
+        <v>3536</v>
         <stp/>
         <stp>rb1805</stp>
         <stp>LastPrice</stp>
@@ -1681,23 +1708,24 @@
         <tr r="P16" s="1"/>
       </tp>
       <tp>
-        <v>3451</v>
+        <v>3377</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
+        <tr r="P11" s="9"/>
         <tr r="P23" s="9"/>
-        <tr r="P11" s="9"/>
+        <tr r="P26" s="9"/>
+        <tr r="P14" s="9"/>
         <tr r="P20" s="9"/>
         <tr r="P17" s="9"/>
-        <tr r="P26" s="9"/>
-        <tr r="P14" s="9"/>
         <tr r="P13" s="1"/>
         <tr r="P14" s="1"/>
+        <tr r="P35" s="9"/>
         <tr r="P20" s="1"/>
         <tr r="P38" s="9"/>
       </tp>
       <tp>
-        <v>3629</v>
+        <v>3536</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
@@ -1998,10 +2026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R50"/>
+  <dimension ref="B1:S63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V51" sqref="V51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3841,7 +3869,7 @@
         <v>43210</v>
       </c>
       <c r="F44" s="114" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G44" s="114">
         <v>30</v>
@@ -3865,11 +3893,11 @@
         <v>7546</v>
       </c>
       <c r="P44" s="114" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q44" s="114"/>
       <c r="R44" s="114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.15">
@@ -4076,7 +4104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B49" s="33"/>
       <c r="C49" s="33" t="s">
         <v>181</v>
@@ -4123,7 +4151,7 @@
       <c r="Q49" s="33"/>
       <c r="R49" s="33"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B50" s="114" t="s">
         <v>160</v>
       </c>
@@ -4137,7 +4165,7 @@
         <v>43240</v>
       </c>
       <c r="F50" s="114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G50" s="114">
         <v>60</v>
@@ -4163,11 +4191,645 @@
         <v>3451</v>
       </c>
       <c r="P50" s="114" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q50" s="114"/>
       <c r="R50" s="114" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B52" s="33"/>
+      <c r="C52" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O52" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B53" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="115">
+        <v>43181</v>
+      </c>
+      <c r="E53" s="115">
+        <v>43235</v>
+      </c>
+      <c r="F53" s="114">
+        <v>13000</v>
+      </c>
+      <c r="G53" s="114">
+        <v>54</v>
+      </c>
+      <c r="H53" s="114">
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="I53" s="114">
+        <v>0</v>
+      </c>
+      <c r="J53" s="114">
+        <v>0.115</v>
+      </c>
+      <c r="K53" s="114">
+        <v>7.2172698545535354</v>
+      </c>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114">
+        <v>0</v>
+      </c>
+      <c r="N53" s="116">
+        <v>7.2172698545535354</v>
+      </c>
+      <c r="O53" s="114">
+        <v>14065</v>
+      </c>
+      <c r="P53" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q53" s="114">
+        <v>1</v>
+      </c>
+      <c r="R53" s="114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B54" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="115">
+        <v>43181</v>
+      </c>
+      <c r="E54" s="115">
+        <v>43235</v>
+      </c>
+      <c r="F54" s="114">
+        <v>13200</v>
+      </c>
+      <c r="G54" s="114">
+        <v>54</v>
+      </c>
+      <c r="H54" s="114">
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="I54" s="114">
+        <v>0</v>
+      </c>
+      <c r="J54" s="114">
+        <v>0.115</v>
+      </c>
+      <c r="K54" s="114">
+        <v>17.288290660645657</v>
+      </c>
+      <c r="L54" s="114"/>
+      <c r="M54" s="114">
+        <v>0</v>
+      </c>
+      <c r="N54" s="116">
+        <v>17.288290660645657</v>
+      </c>
+      <c r="O54" s="114">
+        <v>14065</v>
+      </c>
+      <c r="P54" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q54" s="114">
+        <v>1</v>
+      </c>
+      <c r="R54" s="114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B55" s="33"/>
+      <c r="C55" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N55" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O55" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P55" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B56" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="115">
+        <v>43181</v>
+      </c>
+      <c r="E56" s="115">
+        <v>43215</v>
+      </c>
+      <c r="F56" s="114">
+        <v>13200</v>
+      </c>
+      <c r="G56" s="114">
+        <v>34</v>
+      </c>
+      <c r="H56" s="114">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I56" s="114">
+        <v>0</v>
+      </c>
+      <c r="J56" s="114">
+        <v>0.115</v>
+      </c>
+      <c r="K56" s="114">
+        <v>5.6172742910379156</v>
+      </c>
+      <c r="L56" s="114"/>
+      <c r="M56" s="114">
+        <v>0</v>
+      </c>
+      <c r="N56" s="116">
+        <v>5.6172742910379156</v>
+      </c>
+      <c r="O56" s="114">
+        <v>14065</v>
+      </c>
+      <c r="P56" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q56" s="114">
+        <v>1</v>
+      </c>
+      <c r="R56" s="114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B57" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="115">
+        <v>43181</v>
+      </c>
+      <c r="E57" s="115">
+        <v>43245</v>
+      </c>
+      <c r="F57" s="114">
+        <v>12800</v>
+      </c>
+      <c r="G57" s="114">
+        <v>64</v>
+      </c>
+      <c r="H57" s="114">
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="I57" s="114">
+        <v>0</v>
+      </c>
+      <c r="J57" s="114">
+        <v>0.115</v>
+      </c>
+      <c r="K57" s="114">
+        <v>4.9988881549313078</v>
+      </c>
+      <c r="L57" s="114"/>
+      <c r="M57" s="114">
+        <v>0</v>
+      </c>
+      <c r="N57" s="116">
+        <v>4.9988881549313078</v>
+      </c>
+      <c r="O57" s="114">
+        <v>14065</v>
+      </c>
+      <c r="P57" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q57" s="114">
+        <v>1</v>
+      </c>
+      <c r="R57" s="114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B58" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="115">
+        <v>43181</v>
+      </c>
+      <c r="E58" s="115">
+        <v>43245</v>
+      </c>
+      <c r="F58" s="114">
+        <v>13000</v>
+      </c>
+      <c r="G58" s="114">
+        <v>64</v>
+      </c>
+      <c r="H58" s="114">
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="I58" s="114">
+        <v>0</v>
+      </c>
+      <c r="J58" s="114">
+        <v>0.115</v>
+      </c>
+      <c r="K58" s="114">
+        <v>11.808198498065053</v>
+      </c>
+      <c r="L58" s="114"/>
+      <c r="M58" s="114">
+        <v>0</v>
+      </c>
+      <c r="N58" s="116">
+        <v>11.808198498065053</v>
+      </c>
+      <c r="O58" s="114">
+        <v>14065</v>
+      </c>
+      <c r="P58" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q58" s="114">
+        <v>1</v>
+      </c>
+      <c r="R58" s="114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B59" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="115">
+        <v>43181</v>
+      </c>
+      <c r="E59" s="115">
+        <v>43245</v>
+      </c>
+      <c r="F59" s="114">
+        <v>13200</v>
+      </c>
+      <c r="G59" s="114">
+        <v>64</v>
+      </c>
+      <c r="H59" s="114">
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="I59" s="114">
+        <v>0</v>
+      </c>
+      <c r="J59" s="114">
+        <v>0.115</v>
+      </c>
+      <c r="K59" s="114">
+        <v>25.264602103835841</v>
+      </c>
+      <c r="L59" s="114"/>
+      <c r="M59" s="114">
+        <v>0</v>
+      </c>
+      <c r="N59" s="116">
+        <v>25.264602103835841</v>
+      </c>
+      <c r="O59" s="114">
+        <v>14065</v>
+      </c>
+      <c r="P59" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q59" s="114">
+        <v>1</v>
+      </c>
+      <c r="R59" s="114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B60" s="33"/>
+      <c r="C60" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J60" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N60" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O60" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B61" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="115">
+        <v>43181</v>
+      </c>
+      <c r="E61" s="115">
+        <v>43215</v>
+      </c>
+      <c r="F61" s="114">
+        <v>13300</v>
+      </c>
+      <c r="G61" s="114">
+        <v>34</v>
+      </c>
+      <c r="H61" s="114">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I61" s="114">
+        <v>0</v>
+      </c>
+      <c r="J61" s="114">
+        <v>0.115</v>
+      </c>
+      <c r="K61" s="114">
+        <v>15.428614486488414</v>
+      </c>
+      <c r="L61" s="114"/>
+      <c r="M61" s="114">
+        <v>0</v>
+      </c>
+      <c r="N61" s="116">
+        <v>15.428614486488414</v>
+      </c>
+      <c r="O61" s="114">
+        <v>13970</v>
+      </c>
+      <c r="P61" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q61" s="114">
+        <v>1</v>
+      </c>
+      <c r="R61" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="S61" s="6">
+        <v>1.130830736451726E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B62" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="D62" s="115">
+        <v>43181</v>
+      </c>
+      <c r="E62" s="115">
+        <v>43215</v>
+      </c>
+      <c r="F62" s="114">
+        <v>13400</v>
+      </c>
+      <c r="G62" s="114">
+        <v>34</v>
+      </c>
+      <c r="H62" s="114">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I62" s="114">
+        <v>0</v>
+      </c>
+      <c r="J62" s="114">
+        <v>0.115</v>
+      </c>
+      <c r="K62" s="114">
+        <v>24.861487306546678</v>
+      </c>
+      <c r="L62" s="114"/>
+      <c r="M62" s="114">
+        <v>0</v>
+      </c>
+      <c r="N62" s="116">
+        <v>24.861487306546678</v>
+      </c>
+      <c r="O62" s="114">
+        <v>13970</v>
+      </c>
+      <c r="P62" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q62" s="114">
+        <v>1</v>
+      </c>
+      <c r="R62" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="S62" s="6">
+        <v>1.8190094769668344E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B63" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" s="115">
+        <v>43181</v>
+      </c>
+      <c r="E63" s="115">
+        <v>43215</v>
+      </c>
+      <c r="F63" s="114">
+        <v>13500</v>
+      </c>
+      <c r="G63" s="114">
+        <v>34</v>
+      </c>
+      <c r="H63" s="114">
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="I63" s="114">
+        <v>0</v>
+      </c>
+      <c r="J63" s="114">
+        <v>0.115</v>
+      </c>
+      <c r="K63" s="114">
+        <v>38.515892126515155</v>
+      </c>
+      <c r="L63" s="114"/>
+      <c r="M63" s="114">
+        <v>0</v>
+      </c>
+      <c r="N63" s="116">
+        <v>38.515892126515155</v>
+      </c>
+      <c r="O63" s="114">
+        <v>13970</v>
+      </c>
+      <c r="P63" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63" s="114">
+        <v>1</v>
+      </c>
+      <c r="R63" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="S63" s="6">
+        <v>2.8132938602463521E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4436,9 +5098,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:Y49"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4951,7 +5613,7 @@
       <c r="C23" s="121"/>
       <c r="D23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="E23" s="129"/>
       <c r="G23" s="121" t="s">
@@ -4960,7 +5622,7 @@
       <c r="H23" s="121"/>
       <c r="I23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="J23" s="129"/>
       <c r="L23" s="121" t="s">
@@ -4969,7 +5631,7 @@
       <c r="M23" s="121"/>
       <c r="N23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="O23" s="129"/>
       <c r="Q23" s="121" t="s">
@@ -4978,7 +5640,7 @@
       <c r="R23" s="121"/>
       <c r="S23" s="128">
         <f ca="1">TODAY()-1</f>
-        <v>43179</v>
+        <v>43180</v>
       </c>
       <c r="T23" s="129"/>
       <c r="V23" s="121" t="s">
@@ -4987,7 +5649,7 @@
       <c r="W23" s="121"/>
       <c r="X23" s="128">
         <f ca="1">TODAY()-1</f>
-        <v>43179</v>
+        <v>43180</v>
       </c>
       <c r="Y23" s="129"/>
     </row>
@@ -5474,7 +6136,7 @@
       <c r="C37" s="121"/>
       <c r="D37" s="128">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="E37" s="129"/>
     </row>
@@ -5853,10 +6515,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6017,12 +6679,12 @@
         <v>22</v>
       </c>
       <c r="E8" s="21">
-        <f t="shared" ref="E8:E20" ca="1" si="0">TODAY()</f>
-        <v>43180</v>
+        <f t="shared" ref="E8:E27" ca="1" si="0">TODAY()</f>
+        <v>43181</v>
       </c>
       <c r="F8" s="21">
         <f ca="1">E8+H8</f>
-        <v>43260</v>
+        <v>43261</v>
       </c>
       <c r="G8" s="19">
         <v>3800</v>
@@ -6042,7 +6704,7 @@
       </c>
       <c r="L8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-132.92833209715013</v>
+        <v>-99.271159347020557</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="24">
@@ -6051,11 +6713,11 @@
       </c>
       <c r="O8" s="24">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>132.92833209715013</v>
+        <v>99.271159347020557</v>
       </c>
       <c r="P8" s="20">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>3629</v>
+        <v>3536</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>27</v>
@@ -6069,15 +6731,15 @@
       </c>
       <c r="T8" s="26">
         <f>O8/P8</f>
-        <v>3.6629465995356887E-2</v>
+        <v>2.8074422892256944E-2</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-0.39661222236873073</v>
+        <v>-0.32764219974978914</v>
       </c>
       <c r="V8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-6.5276370412465212</v>
+        <v>-5.9614145164274532</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -6093,11 +6755,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">E9+H9</f>
-        <v>43352</v>
+        <v>43353</v>
       </c>
       <c r="G9" s="10">
         <v>62.9</v>
@@ -6166,11 +6828,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">E10+H10</f>
-        <v>43241</v>
+        <v>43242</v>
       </c>
       <c r="G10" s="10">
         <v>100</v>
@@ -6242,11 +6904,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">E11+H11</f>
-        <v>43241</v>
+        <v>43242</v>
       </c>
       <c r="G11" s="10">
         <v>100</v>
@@ -6342,11 +7004,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13" ca="1" si="1">E13+H13</f>
-        <v>43257</v>
+        <v>43258</v>
       </c>
       <c r="G13" s="10">
         <v>3500</v>
@@ -6366,7 +7028,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-171.47944572081087</v>
+        <v>-213.66042309371505</v>
       </c>
       <c r="M13" s="15">
         <v>0</v>
@@ -6377,11 +7039,11 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" ref="O13" si="4">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>171.47944572081087</v>
+        <v>213.66042309371505</v>
       </c>
       <c r="P13" s="11">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>85</v>
@@ -6395,15 +7057,15 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13" si="6">O13/P13</f>
-        <v>4.9689784329414913E-2</v>
+        <v>6.3269299109776439E-2</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>0.5298964898088343</v>
+        <v>0.60991847956302081</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-6.2762719369101205</v>
+        <v>-5.914536745505302</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6419,11 +7081,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ref="F14:F15" ca="1" si="7">E14+H14</f>
-        <v>43317</v>
+        <v>43318</v>
       </c>
       <c r="G14" s="10">
         <v>3000</v>
@@ -6443,7 +7105,7 @@
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-37.86941246355093</v>
+        <v>-49.759060279855248</v>
       </c>
       <c r="M14" s="15">
         <v>0</v>
@@ -6454,11 +7116,11 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" ref="O14:O15" si="10">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>37.86941246355093</v>
+        <v>49.759060279855248</v>
       </c>
       <c r="P14" s="11">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>85</v>
@@ -6472,15 +7134,15 @@
       </c>
       <c r="T14" s="14">
         <f t="shared" ref="T14:T15" si="12">O14/P14</f>
-        <v>1.0973460580571118E-2</v>
+        <v>1.4734693597825066E-2</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.14250798353430127</v>
+        <v>0.17991489216342416</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-4.7482609494456938</v>
+        <v>-5.4092968348250565</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6496,11 +7158,11 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>43211</v>
+        <v>43212</v>
       </c>
       <c r="G15" s="10">
         <v>3323</v>
@@ -6520,7 +7182,7 @@
       </c>
       <c r="L15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-12.021202809822796</v>
+        <v>-24.550149821361856</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
@@ -6531,11 +7193,11 @@
       </c>
       <c r="O15" s="13">
         <f t="shared" si="10"/>
-        <v>12.021202809822796</v>
+        <v>24.550149821361856</v>
       </c>
       <c r="P15" s="11">
         <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
-        <v>3629</v>
+        <v>3536</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>85</v>
@@ -6549,15 +7211,15 @@
       </c>
       <c r="T15" s="14">
         <f t="shared" si="12"/>
-        <v>3.3125386634948462E-3</v>
+        <v>6.9429156734620631E-3</v>
       </c>
       <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>9.7596107920594477E-2</v>
+        <v>0.17763982084488816</v>
       </c>
       <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-1.821303229368965</v>
+        <v>-2.6786141633943998</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6573,11 +7235,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="13">E16+H16</f>
-        <v>43211</v>
+        <v>43212</v>
       </c>
       <c r="G16" s="10">
         <v>4123</v>
@@ -6597,7 +7259,7 @@
       </c>
       <c r="L16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>1.1324879528289955</v>
+        <v>0.29065734641969954</v>
       </c>
       <c r="M16" s="15">
         <v>0</v>
@@ -6608,11 +7270,11 @@
       </c>
       <c r="O16" s="13">
         <f t="shared" ref="O16" si="16">IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
-        <v>1.1324879528289955</v>
+        <v>0.29065734641969954</v>
       </c>
       <c r="P16" s="11">
         <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
-        <v>3629</v>
+        <v>3536</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>39</v>
@@ -6626,15 +7288,15 @@
       </c>
       <c r="T16" s="14">
         <f t="shared" ref="T16" si="18">O16/P16</f>
-        <v>3.1206612092284254E-4</v>
+        <v>8.2199475797426337E-5</v>
       </c>
       <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>1.5342006251373164E-2</v>
+        <v>4.5741741608651409E-3</v>
       </c>
       <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>0.40971423126962847</v>
+        <v>0.13917833208250752</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6650,11 +7312,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18" ca="1" si="19">E18+H18</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G18" s="10">
         <v>8000</v>
@@ -6672,24 +7334,24 @@
       <c r="K18" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-554.75647435199608</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M18" s="15">
         <v>0</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="13" t="e">
         <f t="shared" ref="N18" si="21">M18/10000*I18*P18</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="13" t="e">
         <f t="shared" ref="O18" si="22">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>554.75647435199608</v>
-      </c>
-      <c r="P18" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P18" s="11" t="e">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>7524</v>
+        <v>#N/A</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>85</v>
@@ -6701,17 +7363,17 @@
       <c r="S18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="14" t="e">
         <f t="shared" ref="T18" si="24">O18/P18</f>
-        <v>7.3731588829345565E-2</v>
-      </c>
-      <c r="U18" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U18" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>0.76422396919042512</v>
-      </c>
-      <c r="V18" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V18" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-6.6083131614054764</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6727,11 +7389,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20" ca="1" si="25">E20+H20</f>
-        <v>43240</v>
+        <v>43241</v>
       </c>
       <c r="G20" s="10">
         <v>3700</v>
@@ -6751,22 +7413,22 @@
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-48.158847170487093</v>
+        <v>-32.030432795755246</v>
       </c>
       <c r="M20" s="15">
         <v>70</v>
       </c>
       <c r="N20" s="13">
         <f t="shared" ref="N20" si="27">M20/10000*I20*P20</f>
-        <v>3.9710136986301365</v>
+        <v>3.8858630136986299</v>
       </c>
       <c r="O20" s="13">
         <f t="shared" ref="O20" si="28">IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>52.12986086911723</v>
+        <v>35.916295809453878</v>
       </c>
       <c r="P20" s="11">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>39</v>
@@ -6780,21 +7442,465 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" ref="T20" si="30">O20/P20</f>
-        <v>1.5105726128402559E-2</v>
+        <v>1.0635562869249002E-2</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.25145526545884422</v>
+        <v>-0.18609712968782333</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-4.4513911278855858</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="U22" s="6">
-        <f>U18*900/5</f>
-        <v>137.56031445427652</v>
+        <v>-3.6616050721134457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43181</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22" ca="1" si="31">E22+H22</f>
+        <v>43215</v>
+      </c>
+      <c r="G22" s="10">
+        <v>13300</v>
+      </c>
+      <c r="H22" s="10">
+        <v>34</v>
+      </c>
+      <c r="I22" s="12">
+        <f>(H22-2)/365</f>
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="L22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>22.18787679212619</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="13">
+        <f t="shared" ref="N22" si="32">M22/10000*I22*P22</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" ref="O22" si="33">IF(L22&lt;=0,ABS(L22)+N22,L22-N22)</f>
+        <v>22.18787679212619</v>
+      </c>
+      <c r="P22" s="11">
+        <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
+        <v>13890</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" ref="R22" si="34">IF(S22="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" ref="T22" si="35">O22/P22</f>
+        <v>1.5973993370861188E-3</v>
+      </c>
+      <c r="U22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>-9.8050707742913801E-2</v>
+      </c>
+      <c r="V22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>7.0913275628151951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43181</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" ref="F23:F24" ca="1" si="36">E23+H23</f>
+        <v>43215</v>
+      </c>
+      <c r="G23" s="10">
+        <v>13400</v>
+      </c>
+      <c r="H23" s="10">
+        <v>34</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" ref="I23:I24" si="37">(H23-2)/365</f>
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="L23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>34.770963902288258</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="13">
+        <f t="shared" ref="N23:N24" si="38">M23/10000*I23*P23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <f t="shared" ref="O23:O24" si="39">IF(L23&lt;=0,ABS(L23)+N23,L23-N23)</f>
+        <v>34.770963902288258</v>
+      </c>
+      <c r="P23" s="11">
+        <f>RTD("wdf.rtq",,D23,"LastPrice")</f>
+        <v>13890</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" ref="R23:R24" si="40">IF(S23="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" ref="T23:T24" si="41">O23/P23</f>
+        <v>2.5033091362338558E-3</v>
+      </c>
+      <c r="U23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>-0.14166551553671525</v>
+      </c>
+      <c r="V23" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
+        <v>9.1981126230498376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="34"/>
+      <c r="B24" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43181</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ca="1" si="36"/>
+        <v>43215</v>
+      </c>
+      <c r="G24" s="10">
+        <v>13500</v>
+      </c>
+      <c r="H24" s="10">
+        <v>34</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="37"/>
+        <v>8.7671232876712329E-2</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="L24" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
+        <v>52.44775482392879</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="13">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <f t="shared" si="39"/>
+        <v>52.44775482392879</v>
+      </c>
+      <c r="P24" s="11">
+        <f>RTD("wdf.rtq",,D24,"LastPrice")</f>
+        <v>13890</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T24" s="14">
+        <f t="shared" si="41"/>
+        <v>3.7759362724210793E-3</v>
+      </c>
+      <c r="U24" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
+        <v>-0.19637164200503321</v>
+      </c>
+      <c r="V24" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
+        <v>11.356517382362426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="34"/>
+      <c r="B25" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43181</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" ref="F25:F27" ca="1" si="42">E25+H25</f>
+        <v>43245</v>
+      </c>
+      <c r="G25" s="10">
+        <v>12800</v>
+      </c>
+      <c r="H25" s="10">
+        <v>64</v>
+      </c>
+      <c r="I25" s="12">
+        <f>(H25-4)/365</f>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="L25" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
+        <v>7.1675179337041186</v>
+      </c>
+      <c r="M25" s="15"/>
+      <c r="N25" s="13">
+        <f t="shared" ref="N25:N27" si="43">M25/10000*I25*P25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <f t="shared" ref="O25:O27" si="44">IF(L25&lt;=0,ABS(L25)+N25,L25-N25)</f>
+        <v>7.1675179337041186</v>
+      </c>
+      <c r="P25" s="11">
+        <f>RTD("wdf.rtq",,D25,"LastPrice")</f>
+        <v>13975</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" ref="R25:R27" si="45">IF(S25="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T25" s="14">
+        <f t="shared" ref="T25:T27" si="46">O25/P25</f>
+        <v>5.1288142638312116E-4</v>
+      </c>
+      <c r="U25" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
+        <v>-2.8172680893590041E-2</v>
+      </c>
+      <c r="V25" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
+        <v>3.6662230585505142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="34"/>
+      <c r="B26" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43181</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ca="1" si="42"/>
+        <v>43245</v>
+      </c>
+      <c r="G26" s="10">
+        <v>13000</v>
+      </c>
+      <c r="H26" s="10">
+        <v>64</v>
+      </c>
+      <c r="I26" s="12">
+        <f>(H26-4)/365</f>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="L26" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
+        <v>16.319761630757512</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="13">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="13">
+        <f t="shared" si="44"/>
+        <v>16.319761630757512</v>
+      </c>
+      <c r="P26" s="11">
+        <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
+        <v>13975</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T26" s="14">
+        <f t="shared" si="46"/>
+        <v>1.1677825853851529E-3</v>
+      </c>
+      <c r="U26" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
+        <v>-5.7508459298105663E-2</v>
+      </c>
+      <c r="V26" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
+        <v>6.5124589735432892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="34"/>
+      <c r="B27" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>43181</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" ca="1" si="42"/>
+        <v>43245</v>
+      </c>
+      <c r="G27" s="10">
+        <v>13200</v>
+      </c>
+      <c r="H27" s="10">
+        <v>64</v>
+      </c>
+      <c r="I27" s="12">
+        <f>(H27-4)/365</f>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="L27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>33.722330075702985</v>
+      </c>
+      <c r="M27" s="15"/>
+      <c r="N27" s="13">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <f t="shared" si="44"/>
+        <v>33.722330075702985</v>
+      </c>
+      <c r="P27" s="11">
+        <f>RTD("wdf.rtq",,D27,"LastPrice")</f>
+        <v>13975</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T27" s="14">
+        <f t="shared" si="46"/>
+        <v>2.4130468748266892E-3</v>
+      </c>
+      <c r="U27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>-0.1058591721744051</v>
+      </c>
+      <c r="V27" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
+        <v>10.325103795723408</v>
       </c>
     </row>
   </sheetData>
@@ -6806,24 +7912,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S16 S18 S20</xm:sqref>
+          <xm:sqref>S8:S16 S18 S20 S22:S27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q16 Q18 Q20</xm:sqref>
+          <xm:sqref>Q8:Q16 Q18 Q20 Q22:Q27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C16 C18 C20</xm:sqref>
+          <xm:sqref>C8:C16 C18 C20 C22:C27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6836,8 +7942,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6997,11 +8103,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -7065,11 +8171,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -7136,11 +8242,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -7204,11 +8310,11 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G11" s="44">
         <v>3300</v>
@@ -7228,17 +8334,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-31.379718450912947</v>
+        <v>-52.742557849252762</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" si="0"/>
-        <v>31.379718450912947</v>
+        <v>52.742557849252762</v>
       </c>
       <c r="P11" s="117">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -7253,11 +8359,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.23357756323321155</v>
+        <v>0.3477614315329447</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.0267189628311826</v>
+        <v>-3.5734724121563204</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -7274,11 +8380,11 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ca="1" si="1"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="1"/>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G12" s="52">
         <v>4000</v>
@@ -7300,17 +8406,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.33722285221256243</v>
+        <v>9.4871878442652324E-2</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="0"/>
-        <v>0.33722285221256243</v>
+        <v>9.4871878442652324E-2</v>
       </c>
       <c r="P12" s="95">
         <f>P11</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -7325,11 +8431,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>5.4383926658019277E-3</v>
+        <v>1.7244219663314908E-3</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.15568153761952086</v>
+        <v>5.4746717729342365E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7346,11 +8452,11 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
@@ -7368,7 +8474,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-31.042495598700384</v>
+        <v>-52.647685970810109</v>
       </c>
       <c r="M13" s="60"/>
       <c r="N13" s="59">
@@ -7377,11 +8483,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="0"/>
-        <v>31.042495598700384</v>
+        <v>52.647685970810109</v>
       </c>
       <c r="P13" s="118">
         <f>P12</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -7390,15 +8496,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>8.9952175017966925E-3</v>
+        <v>1.5590075798285493E-2</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.23901595589901348</v>
+        <v>0.34948585349927619</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-2.8710374252116617</v>
+        <v>-3.518725694426978</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -7414,11 +8520,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G14" s="44">
         <v>3400</v>
@@ -7438,17 +8544,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-64.866171212689778</v>
+        <v>-99.003625766231607</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O28" si="2">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>64.866171212689778</v>
+        <v>99.003625766231607</v>
       </c>
       <c r="P14" s="117">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>85</v>
@@ -7463,11 +8569,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>0.39559968007552015</v>
+        <v>0.52821749789018213</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-3.806321412365719</v>
+        <v>-3.8457422435996023</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -7484,11 +8590,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="3"/>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G15" s="52">
         <v>4000</v>
@@ -7510,17 +8616,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>0.33722285221256243</v>
+        <v>9.4871878442652324E-2</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="2"/>
-        <v>0.33722285221256243</v>
+        <v>9.4871878442652324E-2</v>
       </c>
       <c r="P15" s="95">
         <f>P14</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>39</v>
@@ -7535,11 +8641,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>5.4383926658019277E-3</v>
+        <v>1.7244219663314908E-3</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>0.15568153761952086</v>
+        <v>5.4746717729342365E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7556,11 +8662,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -7578,7 +8684,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-64.528948360477216</v>
+        <v>-98.908753887788961</v>
       </c>
       <c r="M16" s="60"/>
       <c r="N16" s="59">
@@ -7587,11 +8693,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="2"/>
-        <v>64.528948360477216</v>
+        <v>98.908753887788961</v>
       </c>
       <c r="P16" s="118">
         <f>P15</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -7600,15 +8706,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>1.869862311227969E-2</v>
+        <v>2.9288941038729335E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>0.40103807274132208</v>
+        <v>0.52994191985651362</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-3.6506398747461981</v>
+        <v>-3.7909955258702599</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -7624,11 +8730,11 @@
       </c>
       <c r="E17" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F17" s="46">
         <f ca="1">E17+H17</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G17" s="44">
         <v>3500</v>
@@ -7648,17 +8754,17 @@
       </c>
       <c r="L17" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-115.85903285343102</v>
+        <v>-162.96447861090337</v>
       </c>
       <c r="M17" s="49"/>
       <c r="N17" s="43"/>
       <c r="O17" s="43">
         <f t="shared" si="2"/>
-        <v>115.85903285343102</v>
+        <v>162.96447861090337</v>
       </c>
       <c r="P17" s="117">
         <f>RTD("wdf.rtq",,D17,"LastPrice")</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q17" s="44" t="s">
         <v>85</v>
@@ -7673,11 +8779,11 @@
       <c r="T17" s="50"/>
       <c r="U17" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>0.57295913196639958</v>
+        <v>0.69813972909287259</v>
       </c>
       <c r="V17" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-3.8725490064344967</v>
+        <v>-3.3633572261360314</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="13.5" x14ac:dyDescent="0.15">
@@ -7694,11 +8800,11 @@
       </c>
       <c r="E18" s="54">
         <f t="shared" ca="1" si="4"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F18" s="54">
         <f t="shared" ca="1" si="4"/>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G18" s="52">
         <v>4000</v>
@@ -7720,17 +8826,17 @@
       </c>
       <c r="L18" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>0.33722285221256243</v>
+        <v>9.4871878442652324E-2</v>
       </c>
       <c r="M18" s="57"/>
       <c r="N18" s="51"/>
       <c r="O18" s="51">
         <f t="shared" si="2"/>
-        <v>0.33722285221256243</v>
+        <v>9.4871878442652324E-2</v>
       </c>
       <c r="P18" s="95">
         <f>P17</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q18" s="52" t="s">
         <v>39</v>
@@ -7745,11 +8851,11 @@
       <c r="T18" s="58"/>
       <c r="U18" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>5.4383926658019277E-3</v>
+        <v>1.7244219663314908E-3</v>
       </c>
       <c r="V18" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>0.15568153761952086</v>
+        <v>5.4746717729342365E-2</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7766,11 +8872,11 @@
       </c>
       <c r="E19" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F19" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G19" s="60" t="str">
         <f>G17 &amp; "|" &amp; G18</f>
@@ -7788,7 +8894,7 @@
       <c r="K19" s="60"/>
       <c r="L19" s="59">
         <f>L18+L17</f>
-        <v>-115.52181000121845</v>
+        <v>-162.86960673246071</v>
       </c>
       <c r="M19" s="60"/>
       <c r="N19" s="59">
@@ -7797,11 +8903,11 @@
       </c>
       <c r="O19" s="59">
         <f t="shared" si="2"/>
-        <v>115.52181000121845</v>
+        <v>162.86960673246071</v>
       </c>
       <c r="P19" s="118">
         <f>P18</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q19" s="60"/>
       <c r="R19" s="60"/>
@@ -7810,15 +8916,15 @@
       </c>
       <c r="T19" s="64">
         <f>O19/P19</f>
-        <v>3.347487974535452E-2</v>
+        <v>4.8229081057879986E-2</v>
       </c>
       <c r="U19" s="64">
         <f>U18+U17</f>
-        <v>0.57839752463220151</v>
+        <v>0.69986415105920408</v>
       </c>
       <c r="V19" s="64">
         <f>V18+V17</f>
-        <v>-3.7168674688149759</v>
+        <v>-3.308610508406689</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -7834,11 +8940,11 @@
       </c>
       <c r="E20" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F20" s="46">
         <f ca="1">E20+H20</f>
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="G20" s="44">
         <v>3300</v>
@@ -7858,17 +8964,17 @@
       </c>
       <c r="L20" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-86.333667982999259</v>
+        <v>-112.82494963133513</v>
       </c>
       <c r="M20" s="49"/>
       <c r="N20" s="43"/>
       <c r="O20" s="43">
         <f t="shared" si="2"/>
-        <v>86.333667982999259</v>
+        <v>112.82494963133513</v>
       </c>
       <c r="P20" s="117">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q20" s="44" t="s">
         <v>85</v>
@@ -7883,11 +8989,11 @@
       <c r="T20" s="50"/>
       <c r="U20" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>0.32248617683308112</v>
+        <v>0.39459167669519957</v>
       </c>
       <c r="V20" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-6.1292377153921507</v>
+        <v>-6.4315386789761533</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -7904,11 +9010,11 @@
       </c>
       <c r="E21" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F21" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="G21" s="52">
         <v>4000</v>
@@ -7930,17 +9036,17 @@
       </c>
       <c r="L21" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>11.085685042889196</v>
+        <v>6.5592089525383983</v>
       </c>
       <c r="M21" s="57"/>
       <c r="N21" s="51"/>
       <c r="O21" s="51">
         <f t="shared" si="2"/>
-        <v>11.085685042889196</v>
+        <v>6.5592089525383983</v>
       </c>
       <c r="P21" s="95">
         <f>P20</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q21" s="52" t="s">
         <v>39</v>
@@ -7955,11 +9061,11 @@
       <c r="T21" s="58"/>
       <c r="U21" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>7.5007567697582544E-2</v>
+        <v>4.8708599432245592E-2</v>
       </c>
       <c r="V21" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>2.4213292249115455</v>
+        <v>1.6918470783364796</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="96" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7976,11 +9082,11 @@
       </c>
       <c r="E22" s="62">
         <f t="shared" ca="1" si="5"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F22" s="62">
         <f t="shared" ca="1" si="5"/>
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="G22" s="60" t="str">
         <f>G20 &amp; "|" &amp; G21</f>
@@ -7998,7 +9104,7 @@
       <c r="K22" s="60"/>
       <c r="L22" s="59">
         <f>L21+L20</f>
-        <v>-75.247982940110063</v>
+        <v>-106.26574067879673</v>
       </c>
       <c r="M22" s="60"/>
       <c r="N22" s="59">
@@ -8007,11 +9113,11 @@
       </c>
       <c r="O22" s="59">
         <f t="shared" si="2"/>
-        <v>75.247982940110063</v>
+        <v>106.26574067879673</v>
       </c>
       <c r="P22" s="118">
         <f>P21</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
@@ -8020,15 +9126,15 @@
       </c>
       <c r="T22" s="64">
         <f>O22/P22</f>
-        <v>2.1804689348046961E-2</v>
+        <v>3.1467497980099714E-2</v>
       </c>
       <c r="U22" s="64">
         <f>U21+U20</f>
-        <v>0.39749374453066366</v>
+        <v>0.44330027612744516</v>
       </c>
       <c r="V22" s="64">
         <f>V21+V20</f>
-        <v>-3.7079084904806052</v>
+        <v>-4.7396916006396737</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="96" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -8044,11 +9150,11 @@
       </c>
       <c r="E23" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F23" s="46">
         <f ca="1">E23+H23</f>
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="G23" s="44">
         <v>3400</v>
@@ -8068,17 +9174,17 @@
       </c>
       <c r="L23" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-127.82347747681001</v>
+        <v>-161.93319620401758</v>
       </c>
       <c r="M23" s="49"/>
       <c r="N23" s="43"/>
       <c r="O23" s="43">
         <f t="shared" si="2"/>
-        <v>127.82347747681001</v>
+        <v>161.93319620401758</v>
       </c>
       <c r="P23" s="117">
         <f>RTD("wdf.rtq",,D23,"LastPrice")</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q23" s="44" t="s">
         <v>85</v>
@@ -8093,11 +9199,11 @@
       <c r="T23" s="50"/>
       <c r="U23" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>0.42290768029715764</v>
+        <v>0.49948121223906128</v>
       </c>
       <c r="V23" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-6.6821050524845305</v>
+        <v>-6.6568228481410188</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -8114,11 +9220,11 @@
       </c>
       <c r="E24" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F24" s="54">
         <f t="shared" ca="1" si="6"/>
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="G24" s="52">
         <v>4000</v>
@@ -8140,17 +9246,17 @@
       </c>
       <c r="L24" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>11.085685042889196</v>
+        <v>6.5592089525383983</v>
       </c>
       <c r="M24" s="57"/>
       <c r="N24" s="51"/>
       <c r="O24" s="51">
         <f t="shared" si="2"/>
-        <v>11.085685042889196</v>
+        <v>6.5592089525383983</v>
       </c>
       <c r="P24" s="95">
         <f>P23</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q24" s="52" t="s">
         <v>39</v>
@@ -8165,11 +9271,11 @@
       <c r="T24" s="58"/>
       <c r="U24" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>7.5007567697582544E-2</v>
+        <v>4.8708599432245592E-2</v>
       </c>
       <c r="V24" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q24,$P24,$G24,$I24,$C$3,$J24,$K24,$C$4)*R24</f>
-        <v>2.4213292249115455</v>
+        <v>1.6918470783364796</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="96" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8186,11 +9292,11 @@
       </c>
       <c r="E25" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F25" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43270</v>
+        <v>43271</v>
       </c>
       <c r="G25" s="60" t="str">
         <f>G23 &amp; "|" &amp; G24</f>
@@ -8208,7 +9314,7 @@
       <c r="K25" s="60"/>
       <c r="L25" s="59">
         <f>L24+L23</f>
-        <v>-116.73779243392082</v>
+        <v>-155.37398725147918</v>
       </c>
       <c r="M25" s="60"/>
       <c r="N25" s="59">
@@ -8217,11 +9323,11 @@
       </c>
       <c r="O25" s="59">
         <f t="shared" si="2"/>
-        <v>116.73779243392082</v>
+        <v>155.37398725147918</v>
       </c>
       <c r="P25" s="118">
         <f>P24</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q25" s="60"/>
       <c r="R25" s="60"/>
@@ -8230,15 +9336,15 @@
       </c>
       <c r="T25" s="64">
         <f>O25/P25</f>
-        <v>3.3827236289168595E-2</v>
+        <v>4.6009472091050989E-2</v>
       </c>
       <c r="U25" s="64">
         <f>U24+U23</f>
-        <v>0.49791524799474018</v>
+        <v>0.54818981167130687</v>
       </c>
       <c r="V25" s="64">
         <f>V24+V23</f>
-        <v>-4.260775827572985</v>
+        <v>-4.9649757698045391</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="96" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -8254,11 +9360,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43364</v>
+        <v>43365</v>
       </c>
       <c r="G26" s="44">
         <v>3600</v>
@@ -8278,17 +9384,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>238.05321392615224</v>
+        <v>286.77907921006954</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" si="2"/>
-        <v>238.05321392615224</v>
+        <v>286.77907921006954</v>
       </c>
       <c r="P26" s="117">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -8303,11 +9409,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.62263822514978528</v>
+        <v>-0.69353961011984211</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>9.1642429375233405</v>
+        <v>8.2407127538047007</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -8324,11 +9430,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ca="1" si="7"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="7"/>
-        <v>43364</v>
+        <v>43365</v>
       </c>
       <c r="G27" s="52">
         <v>4000</v>
@@ -8350,17 +9456,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-28.851702214199975</v>
+        <v>-20.051393487046994</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="2"/>
-        <v>28.851702214199975</v>
+        <v>20.051393487046994</v>
       </c>
       <c r="P27" s="95">
         <f>P26</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -8375,11 +9481,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.13620015937760854</v>
+        <v>-0.10263873709277505</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-5.3290772926344232</v>
+        <v>-4.2718643453291065</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="96" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8396,11 +9502,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ca="1" si="7"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="7"/>
-        <v>43364</v>
+        <v>43365</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -8418,7 +9524,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>209.20151171195226</v>
+        <v>266.72768572302255</v>
       </c>
       <c r="M28" s="60"/>
       <c r="N28" s="59">
@@ -8427,11 +9533,11 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="2"/>
-        <v>209.20151171195226</v>
+        <v>266.72768572302255</v>
       </c>
       <c r="P28" s="118">
         <f>P27</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
@@ -8440,15 +9546,15 @@
       </c>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>6.0620548163417054E-2</v>
+        <v>7.8983620291093445E-2</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.75883838452739383</v>
+        <v>-0.79617834721261715</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>3.8351656448889173</v>
+        <v>3.9688484084755942</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="98" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -8464,11 +9570,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G29" s="44">
         <v>92</v>
@@ -8533,11 +9639,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ca="1" si="9"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="9"/>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G30" s="52">
         <v>105</v>
@@ -8605,11 +9711,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ca="1" si="10"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="10"/>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -8675,11 +9781,11 @@
       </c>
       <c r="E32" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F32" s="46">
         <f ca="1">E32+H32</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G32" s="44">
         <v>95</v>
@@ -8744,11 +9850,11 @@
       </c>
       <c r="E33" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F33" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G33" s="52">
         <v>102.5</v>
@@ -8816,11 +9922,11 @@
       </c>
       <c r="E34" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F34" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="G34" s="60" t="str">
         <f>G32 &amp; "|" &amp; G33</f>
@@ -8882,64 +9988,64 @@
         <v>160</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E35" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F35" s="46">
         <f ca="1">E35+H35</f>
-        <v>43210</v>
+        <v>43271</v>
       </c>
       <c r="G35" s="44">
-        <v>7000</v>
+        <v>3350</v>
       </c>
       <c r="H35" s="44">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I35" s="47">
         <f>H35/365</f>
-        <v>8.2191780821917804E-2</v>
+        <v>0.24657534246575341</v>
       </c>
       <c r="J35" s="47">
         <v>0</v>
       </c>
       <c r="K35" s="48">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="L35" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>-28.684681438958592</v>
+        <v>99.757210285864403</v>
       </c>
       <c r="M35" s="49"/>
       <c r="N35" s="43"/>
       <c r="O35" s="43">
         <f t="shared" ref="O35:O37" si="13">IF(L35&lt;=0,ABS(L35)+N35,L35-N35)</f>
-        <v>28.684681438958592</v>
+        <v>99.757210285864403</v>
       </c>
       <c r="P35" s="117">
         <f>RTD("wdf.rtq",,D35,"LastPrice")</f>
-        <v>7524</v>
+        <v>3377</v>
       </c>
       <c r="Q35" s="44" t="s">
         <v>85</v>
       </c>
       <c r="R35" s="44">
         <f>IF(S35="中金买入",1,-1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S35" s="48" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T35" s="50"/>
       <c r="U35" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>0.11958775427842738</v>
+        <v>-0.44320520649989703</v>
       </c>
       <c r="V35" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>-4.2991745948784228</v>
+        <v>6.5943710701601503</v>
       </c>
     </row>
     <row r="36" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -8950,67 +10056,67 @@
       <c r="C36" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="52" t="s">
-        <v>218</v>
+      <c r="D36" s="52" t="str">
+        <f>D35</f>
+        <v>rb1810</v>
       </c>
       <c r="E36" s="54">
-        <f t="shared" ref="D36:F36" ca="1" si="14">E35</f>
-        <v>43180</v>
+        <f t="shared" ref="E36:F36" ca="1" si="14">E35</f>
+        <v>43181</v>
       </c>
       <c r="F36" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43210</v>
+        <v>43271</v>
       </c>
       <c r="G36" s="52">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="H36" s="52">
-        <f>H35</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I36" s="55">
         <f>H36/365</f>
-        <v>8.2191780821917804E-2</v>
+        <v>0.24657534246575341</v>
       </c>
       <c r="J36" s="55">
         <f>J35</f>
         <v>0</v>
       </c>
       <c r="K36" s="56">
-        <v>0.18</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="L36" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>22.942797607514649</v>
+        <v>-51.270453231370311</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="51"/>
       <c r="O36" s="51">
         <f t="shared" si="13"/>
-        <v>22.942797607514649</v>
+        <v>51.270453231370311</v>
       </c>
       <c r="P36" s="95">
         <f>P35</f>
-        <v>7524</v>
+        <v>3377</v>
       </c>
       <c r="Q36" s="52" t="s">
         <v>39</v>
       </c>
       <c r="R36" s="52">
         <f>IF(S36="中金买入",1,-1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S36" s="56" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="T36" s="58"/>
       <c r="U36" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>0.12222855916661501</v>
+        <v>-0.26894545208620002</v>
       </c>
       <c r="V36" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>4.3640368030577861</v>
+        <v>-5.5173927690238997</v>
       </c>
     </row>
     <row r="37" spans="1:22" s="102" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9022,34 +10128,34 @@
         <v>160</v>
       </c>
       <c r="D37" s="60" t="str">
-        <f t="shared" ref="D37:F37" si="15">D36</f>
-        <v>sm805</v>
+        <f>D36</f>
+        <v>rb1810</v>
       </c>
       <c r="E37" s="62">
-        <f t="shared" ca="1" si="15"/>
-        <v>43180</v>
+        <f t="shared" ref="E37:F37" ca="1" si="15">E36</f>
+        <v>43181</v>
       </c>
       <c r="F37" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43210</v>
+        <v>43271</v>
       </c>
       <c r="G37" s="60" t="str">
         <f>G35 &amp; "|" &amp; G36</f>
-        <v>7000|8000</v>
+        <v>3350|3600</v>
       </c>
       <c r="H37" s="60">
         <f>H36</f>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I37" s="63">
         <f>I36</f>
-        <v>8.2191780821917804E-2</v>
+        <v>0.24657534246575341</v>
       </c>
       <c r="J37" s="63"/>
       <c r="K37" s="60"/>
       <c r="L37" s="59">
         <f>L36+L35</f>
-        <v>-5.7418838314439427</v>
+        <v>48.486757054494092</v>
       </c>
       <c r="M37" s="60"/>
       <c r="N37" s="59">
@@ -9058,11 +10164,11 @@
       </c>
       <c r="O37" s="59">
         <f t="shared" si="13"/>
-        <v>5.7418838314439427</v>
+        <v>48.486757054494092</v>
       </c>
       <c r="P37" s="118">
         <f>P36</f>
-        <v>7524</v>
+        <v>3377</v>
       </c>
       <c r="Q37" s="60"/>
       <c r="R37" s="60"/>
@@ -9071,15 +10177,15 @@
       </c>
       <c r="T37" s="64">
         <f>O37/P37</f>
-        <v>7.6314245500318212E-4</v>
+        <v>1.4357938126886021E-2</v>
       </c>
       <c r="U37" s="64">
         <f>U36+U35</f>
-        <v>0.2418163134450424</v>
+        <v>-0.71215065858609705</v>
       </c>
       <c r="V37" s="64">
         <f>V36+V35</f>
-        <v>6.4862208179363279E-2</v>
+        <v>1.0769783011362506</v>
       </c>
     </row>
     <row r="38" spans="1:22" s="96" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -9095,21 +10201,21 @@
       </c>
       <c r="E38" s="46">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F38" s="46">
         <f ca="1">E38+H38</f>
-        <v>43240</v>
+        <v>43361</v>
       </c>
       <c r="G38" s="44">
-        <v>3450</v>
+        <v>3350</v>
       </c>
       <c r="H38" s="44">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I38" s="47">
         <f>H38/365</f>
-        <v>0.16438356164383561</v>
+        <v>0.49315068493150682</v>
       </c>
       <c r="J38" s="47">
         <v>0</v>
@@ -9119,17 +10225,17 @@
       </c>
       <c r="L38" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>94.051366636414514</v>
+        <v>145.51574438212197</v>
       </c>
       <c r="M38" s="49"/>
       <c r="N38" s="43"/>
       <c r="O38" s="43">
         <f t="shared" ref="O38:O40" si="16">IF(L38&lt;=0,ABS(L38)+N38,L38-N38)</f>
-        <v>94.051366636414514</v>
+        <v>145.51574438212197</v>
       </c>
       <c r="P38" s="117">
         <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q38" s="44" t="s">
         <v>85</v>
@@ -9144,11 +10250,11 @@
       <c r="T38" s="50"/>
       <c r="U38" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>-0.48298728466988905</v>
+        <v>-0.4450854042033825</v>
       </c>
       <c r="V38" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
-        <v>5.5594447604922834</v>
+        <v>9.2927565707290114</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="96" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -9164,44 +10270,43 @@
         <v>rb1810</v>
       </c>
       <c r="E39" s="54">
-        <f t="shared" ref="E39:G39" ca="1" si="17">E38</f>
-        <v>43180</v>
+        <f t="shared" ref="E39:F39" ca="1" si="17">E38</f>
+        <v>43181</v>
       </c>
       <c r="F39" s="54">
         <f t="shared" ca="1" si="17"/>
-        <v>43240</v>
+        <v>43361</v>
       </c>
       <c r="G39" s="52">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H39" s="52">
-        <f>H38</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I39" s="55">
         <f>H39/365</f>
-        <v>0.16438356164383561</v>
+        <v>0.49315068493150682</v>
       </c>
       <c r="J39" s="55">
         <f>J38</f>
         <v>0</v>
       </c>
       <c r="K39" s="56">
-        <v>0.20499999999999999</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="L39" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>-33.232545093237945</v>
+        <v>-98.307942225367242</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="51"/>
       <c r="O39" s="51">
         <f t="shared" si="16"/>
-        <v>33.232545093237945</v>
+        <v>98.307942225367242</v>
       </c>
       <c r="P39" s="95">
         <f>P38</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q39" s="52" t="s">
         <v>39</v>
@@ -9216,11 +10321,11 @@
       <c r="T39" s="58"/>
       <c r="U39" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>-0.21212670819750201</v>
+        <v>-0.34174292619582047</v>
       </c>
       <c r="V39" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>-4.0482033338130918</v>
+        <v>-8.6506098276726107</v>
       </c>
     </row>
     <row r="40" spans="1:22" s="102" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9237,44 +10342,44 @@
       </c>
       <c r="E40" s="62">
         <f t="shared" ca="1" si="18"/>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="F40" s="62">
         <f t="shared" ca="1" si="18"/>
-        <v>43240</v>
+        <v>43361</v>
       </c>
       <c r="G40" s="60" t="str">
         <f>G38 &amp; "|" &amp; G39</f>
-        <v>3450|3700</v>
+        <v>3350|3600</v>
       </c>
       <c r="H40" s="60">
         <f>H39</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I40" s="63">
         <f>I39</f>
-        <v>0.16438356164383561</v>
+        <v>0.49315068493150682</v>
       </c>
       <c r="J40" s="63"/>
       <c r="K40" s="60"/>
       <c r="L40" s="59">
         <f>L39+L38</f>
-        <v>60.818821543176568</v>
+        <v>47.207802156754724</v>
       </c>
       <c r="M40" s="60">
         <v>50</v>
       </c>
       <c r="N40" s="59">
         <f>M40/10000*I40*P40</f>
-        <v>2.8364383561643836</v>
+        <v>8.3268493150684932</v>
       </c>
       <c r="O40" s="59">
         <f t="shared" si="16"/>
-        <v>57.982383187012182</v>
+        <v>38.880952841686231</v>
       </c>
       <c r="P40" s="118">
         <f>P39</f>
-        <v>3451</v>
+        <v>3377</v>
       </c>
       <c r="Q40" s="60"/>
       <c r="R40" s="60"/>
@@ -9283,15 +10388,15 @@
       </c>
       <c r="T40" s="64">
         <f>O40/P40</f>
-        <v>1.6801617846135087E-2</v>
+        <v>1.1513459532628436E-2</v>
       </c>
       <c r="U40" s="64">
         <f>U39+U38</f>
-        <v>-0.69511399286739106</v>
+        <v>-0.78682833039920297</v>
       </c>
       <c r="V40" s="64">
         <f>V39+V38</f>
-        <v>1.5112414266791916</v>
+        <v>0.64214674305640074</v>
       </c>
     </row>
   </sheetData>
@@ -9338,7 +10443,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -9515,7 +10620,7 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3629</v>
+        <v>3536</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -9532,11 +10637,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -9553,30 +10658,30 @@
       </c>
       <c r="S8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("price",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)*E8</f>
-        <v>-26.506051444970108</v>
+        <v>-16.32023838459839</v>
       </c>
       <c r="T8" s="25">
         <v>80</v>
       </c>
       <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>2.386191780821918</v>
+        <v>2.3250410958904109</v>
       </c>
       <c r="V8" s="24">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
-        <v>28.892243225792026</v>
+        <v>18.645279480488803</v>
       </c>
       <c r="W8" s="26">
         <f>V8/H8</f>
-        <v>7.9614889021195987E-3</v>
+        <v>5.2729862784187788E-3</v>
       </c>
       <c r="X8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>0.12022429242417587</v>
+        <v>8.7923747412510522E-2</v>
       </c>
       <c r="Y8" s="24">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G8,H8,I8,K8,L8*H8,P8,$C$3,Q8,R8,$C$4)</f>
-        <v>1.0182261283516549</v>
+        <v>0.96833080814709316</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
@@ -9618,11 +10723,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43360</v>
+        <v>43361</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -11449,18 +12554,18 @@
       </c>
       <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>3629</v>
+        <v>3536</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -11474,30 +12579,30 @@
       </c>
       <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>60.565954979585285</v>
+        <v>36.022040906624625</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
       <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>2.386191780821918</v>
+        <v>2.3250410958904109</v>
       </c>
       <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>62.952146760407203</v>
+        <v>38.347082002515037</v>
       </c>
       <c r="S8" s="26">
         <f>R8/H8</f>
-        <v>1.7346967969249713E-2</v>
+        <v>1.084476300976104E-2</v>
       </c>
       <c r="T8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
-        <v>0.31436429638915797</v>
+        <v>0.2161560145623298</v>
       </c>
       <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>3.6904525336721008</v>
+        <v>2.9693705403840909</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -11529,11 +12634,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -11599,11 +12704,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
